--- a/docs/ldr/ldr.xlsx
+++ b/docs/ldr/ldr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dayoung\orange\BOAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dayoung\orange\BOAT\docs\ldr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCCA0C3-D378-4D57-B320-13A0DF86FC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2B347F-746F-469D-B84F-0E60E29CD3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{342DDD22-8936-4EEA-9C39-5B30C4FFC4A5}"/>
   </bookViews>
@@ -33,42 +33,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Ambient Light</t>
+    <t>LDR</t>
   </si>
   <si>
-    <t>11 kOhm</t>
+    <t>Light</t>
   </si>
   <si>
-    <t>Direct Light</t>
+    <t>Direct</t>
   </si>
   <si>
-    <t>2 kOhm</t>
+    <t>Indirect</t>
   </si>
   <si>
-    <t>Indirect Light</t>
+    <t>Ambient</t>
   </si>
   <si>
-    <t>5 kOhm</t>
+    <t>Shade</t>
   </si>
   <si>
-    <t>1 Mohm</t>
+    <t>Dark</t>
   </si>
   <si>
-    <t>Dark Room</t>
+    <t>Vout(10k)</t>
   </si>
   <si>
-    <t>140 kOhm</t>
+    <t>Vout(20k)</t>
   </si>
   <si>
-    <t>30 kOhm</t>
+    <t>Vout(30k)</t>
   </si>
   <si>
-    <t>Shaded</t>
+    <t>Diff(10k)</t>
   </si>
   <si>
-    <t>`</t>
+    <t>Diff(20k)</t>
+  </si>
+  <si>
+    <t>Diff(30k)</t>
   </si>
 </sst>
 </file>
@@ -121,6 +124,2798 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vout(10k)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F80-4352-BE75-30707173DF18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="668324335"/>
+        <c:axId val="668094703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="668324335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668094703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="668094703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668324335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vout(20k)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6064-4F95-AB61-C511CC3B06FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="716568047"/>
+        <c:axId val="228260271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="716568047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228260271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="228260271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716568047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vout(30k)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A44-4539-84E7-F8F966ED6C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="665843471"/>
+        <c:axId val="428773087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="665843471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428773087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="428773087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665843471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0D4491-5FA5-4F14-B552-7B37FAC83EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CBB346-C73F-4210-ABD3-A1838B5D309A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0725A6C1-A04C-481A-872B-C15C0E64F7A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,66 +3215,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D69271-9600-412A-8F94-B492CA344ED6}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <f>ROUND(10000/(B2+10000)*3.3, 3)</f>
+        <v>2.75</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(20000/(B2+20000)*3.3, 3)</f>
         <v>3</v>
       </c>
+      <c r="E2">
+        <f>ROUND(30000/(B2+30000)*3.3, 3)</f>
+        <v>3.0939999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:D6" si="0">ROUND(10000/(B3+10000)*3.3, 3)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="1">ROUND(20000/(B3+20000)*3.3, 3)</f>
+        <v>2.64</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="2">ROUND(30000/(B3+30000)*3.3, 3)</f>
+        <v>2.8290000000000002</v>
+      </c>
+      <c r="F3">
+        <f>C2-C3</f>
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="G3">
+        <f>D2-D3</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="H3">
+        <f>E2-E3</f>
+        <v>0.26499999999999968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4">
+        <v>11000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.571</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>2.129</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>2.415</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:H6" si="3">C3-C4</f>
+        <v>0.62900000000000023</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.51100000000000012</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0.41400000000000015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>30000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1.32</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>1.65</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0.746</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.80899999999999994</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>0.76500000000000012</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
         <v>6</v>
+      </c>
+      <c r="B6">
+        <v>140000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1.0680000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>